--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:33:44+00:00</t>
+    <t>2025-10-17T12:45:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:45:54+00:00</t>
+    <t>2025-10-17T12:47:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:47:41+00:00</t>
+    <t>2025-10-17T13:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:37:49+00:00</t>
+    <t>2025-10-23T07:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T07:38:48+00:00</t>
+    <t>2025-10-23T09:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:27:39+00:00</t>
+    <t>2025-10-23T10:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T10:03:30+00:00</t>
+    <t>2025-10-23T11:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T11:11:53+00:00</t>
+    <t>2025-10-23T12:03:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:03:29+00:00</t>
+    <t>2025-10-23T12:14:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:14:06+00:00</t>
+    <t>2025-10-23T12:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:40:30+00:00</t>
+    <t>2025-10-23T12:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:50:40+00:00</t>
+    <t>2025-10-23T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T13:57:04+00:00</t>
+    <t>2025-10-23T15:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
+++ b/ML/ig/ValueSet-orientationParticuliere-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
